--- a/Vishnu-vtreat.xlsx
+++ b/Vishnu-vtreat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\VTREAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
   <si>
     <t>Var_a</t>
   </si>
@@ -45,12 +48,6 @@
   </si>
   <si>
     <t>CIBIL _SCORE_NULL_FLAG</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>X</t>
@@ -94,6 +91,147 @@
   </si>
   <si>
     <t>2.2. Missing values in categorical variables</t>
+  </si>
+  <si>
+    <t>Km/Ltr</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Electric car/bad calculation</t>
+  </si>
+  <si>
+    <t>Non-numeric typo/bad calculation</t>
+  </si>
+  <si>
+    <t>Electric car</t>
+  </si>
+  <si>
+    <t>Km/Ltr_isBad</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Size_Med</t>
+  </si>
+  <si>
+    <t>Size_Lrg</t>
+  </si>
+  <si>
+    <t>Size_Sml</t>
+  </si>
+  <si>
+    <t>Size_NA</t>
+  </si>
+  <si>
+    <t>Training Data</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>X_a</t>
+  </si>
+  <si>
+    <t>X_b</t>
+  </si>
+  <si>
+    <t>X_c</t>
+  </si>
+  <si>
+    <t>Test Data Treated</t>
+  </si>
+  <si>
+    <t>Residence CA NV OR CA CA NA WA OR WA Residence NV OR NV WY CA CA NV NA OR</t>
+  </si>
+  <si>
+    <t>Training Data Proprtions</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>Pin_code</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Sum of Area</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Pin_impact</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Income(K)</t>
+  </si>
+  <si>
+    <t>mean_inc</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Rare_lev</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>rare_level</t>
   </si>
 </sst>
 </file>
@@ -103,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -247,11 +397,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -274,12 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,11 +530,359 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="35">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -309,13 +899,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -585,6 +1175,260 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vishnu" refreshedDate="43468.940521875003" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="N3:O12" sheet="Sheet4"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Pin_code" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500001" maxValue="500105" count="6">
+        <n v="500032"/>
+        <n v="500001"/>
+        <n v="500012"/>
+        <n v="500105"/>
+        <n v="500089"/>
+        <n v="500050"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Area" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="28" maxValue="74"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+  <r>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="74"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Q4:R11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Area" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="35">
+    <format dxfId="34">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -848,204 +1692,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="10"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="P3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="2">
+      <c r="K4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>57.021572216025582</v>
       </c>
+      <c r="B5" s="2">
+        <v>84.936737163077808</v>
+      </c>
+      <c r="C5" s="2">
+        <v>76.474331342298115</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="2">
+        <v>57.021572216025582</v>
+      </c>
+      <c r="G5" s="2">
         <v>84.936737163077808</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>76.474331342298115</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>57.021572216025582</v>
-      </c>
-      <c r="K5" s="2">
-        <v>84.936737163077808</v>
-      </c>
-      <c r="L5" s="2">
-        <v>76.474331342298115</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="20">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>37.992727017171724</v>
       </c>
+      <c r="B6" s="2">
+        <v>38.474551497663313</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43.319502457945205</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="2">
+        <v>37.992727017171724</v>
+      </c>
+      <c r="G6" s="2">
         <v>38.474551497663313</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>43.319502457945205</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>37.992727017171724</v>
-      </c>
-      <c r="K6" s="2">
-        <v>38.474551497663313</v>
-      </c>
-      <c r="L6" s="2">
-        <v>43.319502457945205</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="2">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="21">
+        <v>17.3</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>23.678597299611191</v>
       </c>
+      <c r="B7" s="2">
+        <v>8.6401281631315108</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60.857255866328373</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="2">
+        <v>23.678597299611191</v>
+      </c>
+      <c r="G7" s="2">
         <v>8.6401281631315108</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>60.857255866328373</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23.678597299611191</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.6401281631315108</v>
-      </c>
-      <c r="L7" s="2">
-        <v>60.857255866328373</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>22</v>
+      </c>
+      <c r="M7" s="20">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>51.360819109272057</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>43.876287858641305</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>34.384509215387325</v>
+      </c>
       <c r="G8" s="2">
-        <v>43.876287858641305</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+        <v>84.162590275233356</v>
+      </c>
+      <c r="H8" s="2">
+        <v>91.483469319196374</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>17</v>
+      </c>
+      <c r="M8" s="20">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>34.384509215387325</v>
       </c>
-      <c r="K8" s="2">
+      <c r="B9" s="2">
         <v>84.162590275233356</v>
       </c>
-      <c r="L8" s="2">
+      <c r="C9" s="2">
         <v>91.483469319196374</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="2">
-        <v>34.384509215387325</v>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>84.162590275233356</v>
+        <v>11.34585082786348</v>
       </c>
       <c r="G9" s="2">
-        <v>91.483469319196374</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+        <v>96.806511958719696</v>
+      </c>
+      <c r="H9" s="2">
+        <v>79.940043370571559</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="21">
+        <v>17.3</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>11.34585082786348</v>
       </c>
-      <c r="K9" s="2">
+      <c r="B10" s="2">
         <v>96.806511958719696</v>
       </c>
-      <c r="L9" s="2">
+      <c r="C10" s="2">
         <v>79.940043370571559</v>
       </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="2">
-        <v>11.34585082786348</v>
-      </c>
-      <c r="F10" s="2">
-        <v>96.806511958719696</v>
-      </c>
-      <c r="G10" s="2">
-        <v>79.940043370571559</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="21">
+        <v>17.3</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1053,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:J23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,50 +2159,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1311,117 +2406,1052 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G11"/>
+  <dimension ref="A2:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J49" sqref="A41:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="9.140625" style="9"/>
+    <col min="9" max="16" width="9.140625" style="9"/>
+    <col min="17" max="17" width="13.140625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="F3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="I3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="16"/>
+      <c r="N3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="17">
+        <v>500032</v>
+      </c>
+      <c r="O4" s="17">
+        <f ca="1">RANDBETWEEN(25,75)</f>
+        <v>65</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">100*RAND()</f>
-        <v>6.1962545438508876</v>
+        <v>38.052341226257766</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <v>500001</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" ref="O5:O12" ca="1" si="0">RANDBETWEEN(25,75)</f>
+        <v>53</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>500001</v>
+      </c>
+      <c r="R5" s="45">
+        <v>99</v>
+      </c>
+      <c r="S5" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500001)</f>
+        <v>-49.444444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6:D10" ca="1" si="1">100*RAND()</f>
+        <v>31.874148699548886</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>500012</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>500012</v>
+      </c>
+      <c r="R6" s="45">
+        <v>28</v>
+      </c>
+      <c r="S6" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500012)</f>
+        <v>21.555555555555557</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.607792872784529</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>500105</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>500032</v>
+      </c>
+      <c r="R7" s="45">
+        <v>95</v>
+      </c>
+      <c r="S7" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500032)</f>
+        <v>-45.444444444444443</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>89.19526110528281</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <v>500032</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>500050</v>
+      </c>
+      <c r="R8" s="45">
+        <v>74</v>
+      </c>
+      <c r="S8" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500050)</f>
+        <v>-24.444444444444443</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="D9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.182486281349142</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:D10" ca="1" si="0">100*RAND()</f>
-        <v>14.963193453447454</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G9" s="6"/>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="24">
+        <v>500105</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>500089</v>
+      </c>
+      <c r="R9" s="45">
+        <v>30</v>
+      </c>
+      <c r="S9" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500089)</f>
+        <v>19.555555555555557</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>69.385319290602183</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="G10" s="8"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <v>500089</v>
+      </c>
+      <c r="O10" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>500105</v>
+      </c>
+      <c r="R10" s="45">
+        <v>136</v>
+      </c>
+      <c r="S10" s="17">
+        <f ca="1">O13-GETPIVOTDATA("Area",$Q$4,"Pin_code",500105)</f>
+        <v>-86.444444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="31">
+        <v>46.8</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>500001</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="45">
+        <v>462</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="24">
+        <v>500050</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="23"/>
+      <c r="N13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="17">
+        <f ca="1">AVERAGE(O4:O12)</f>
+        <v>49.555555555555557</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="17">
+        <v>500001</v>
+      </c>
+      <c r="L17" s="17">
+        <v>500001</v>
+      </c>
+      <c r="M17" s="17">
+        <v>20</v>
+      </c>
+      <c r="N17" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="17">
+        <v>20000</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.449409524818449</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="E18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="17">
+        <v>500012</v>
+      </c>
+      <c r="L18" s="17">
+        <v>500012</v>
+      </c>
+      <c r="M18" s="17">
+        <v>10</v>
+      </c>
+      <c r="N18" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="17">
+        <v>18000</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J19" s="17">
+        <v>500032</v>
+      </c>
+      <c r="L19" s="17">
+        <v>500001</v>
+      </c>
+      <c r="M19" s="17">
+        <v>27</v>
+      </c>
+      <c r="N19" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="17">
+        <v>15000</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" s="17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J20" s="17">
+        <v>500050</v>
+      </c>
+      <c r="L20" s="17">
+        <v>500012</v>
+      </c>
+      <c r="M20" s="17">
+        <v>15</v>
+      </c>
+      <c r="N20" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="17">
+        <v>12000</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="17">
+        <v>500032</v>
+      </c>
+      <c r="M21" s="17">
+        <v>30</v>
+      </c>
+      <c r="N21" s="17">
+        <v>32.5</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="18">
+        <v>150</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" s="24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="17">
+        <v>500050</v>
+      </c>
+      <c r="M22" s="17">
+        <v>60</v>
+      </c>
+      <c r="N22" s="17">
+        <v>52.5</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="17">
+        <v>500001</v>
+      </c>
+      <c r="M23" s="17">
+        <v>24</v>
+      </c>
+      <c r="N23" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L24" s="17">
+        <v>500012</v>
+      </c>
+      <c r="M24" s="17">
+        <v>17</v>
+      </c>
+      <c r="N24" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="17">
+        <v>500032</v>
+      </c>
+      <c r="M25" s="17">
+        <v>35</v>
+      </c>
+      <c r="N25" s="17">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L26" s="17">
+        <v>500050</v>
+      </c>
+      <c r="M26" s="17">
+        <v>45</v>
+      </c>
+      <c r="N26" s="17">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="24">
+        <v>500001</v>
+      </c>
+      <c r="M27" s="17">
+        <v>29</v>
+      </c>
+      <c r="N27" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="H30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="E36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.260132219381404</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.832956134256349</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.84313984711739</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="E38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="43"/>
+      <c r="E41" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="H41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="47">
+        <f ca="1">100*RAND()</f>
+        <v>92.825650672884336</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="47">
+        <f t="shared" ref="B44:B48" ca="1" si="2">100*RAND()</f>
+        <v>56.329438983519339</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.23057020273712</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>60.310014142278277</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>86.282313151913726</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>62.494840983375688</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="H48" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="28">
+        <v>46.8</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="28">
+        <v>0</v>
+      </c>
+      <c r="J49" s="29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1429,17 +3459,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G19" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G20" s="46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G21" s="46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G22" s="46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G23" s="46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G24" s="46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G25" s="46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G26" s="46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G27" s="46">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
